--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tech\iruve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7A93A2-6B0C-4FA0-B4A6-50EF2242BDB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A04ABC-F261-47BE-972D-75ED0C05020C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{295D4F99-078C-4E22-B2AA-97B5ECF94782}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Screwdriver Set</t>
+  </si>
+  <si>
+    <t>No-Objection Certificate</t>
   </si>
 </sst>
 </file>
@@ -196,13 +199,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,466 +523,472 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE66E69-E0B4-4A34-8887-F4F6AE1498FD}">
   <dimension ref="B3:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="23.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="3"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="23.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="5" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="5" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>9</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>11</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>12</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>13</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>14</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>15</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>16</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>17</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>18</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>19</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>20</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>21</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>22</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>23</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>24</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>25</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>26</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>27</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>28</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>29</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>30</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>31</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>32</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>33</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>34</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>35</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>36</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>37</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>38</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>39</v>
       </c>
+      <c r="C44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>40</v>
       </c>
     </row>

--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tech\iruve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A04ABC-F261-47BE-972D-75ED0C05020C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF41AECB-1999-4E95-8379-E4F8FBFABE91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{295D4F99-078C-4E22-B2AA-97B5ECF94782}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>No-Objection Certificate</t>
+  </si>
+  <si>
+    <t>Binding Wire</t>
+  </si>
+  <si>
+    <t>Screwdriver</t>
   </si>
 </sst>
 </file>
@@ -521,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE66E69-E0B4-4A34-8887-F4F6AE1498FD}">
-  <dimension ref="B3:E45"/>
+  <dimension ref="B3:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,7 +726,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -918,7 +924,7 @@
         <v>38</v>
       </c>
       <c r="D38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
@@ -990,6 +996,23 @@
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>40</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
+        <v>41</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
